--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Pgf</t>
+  </si>
+  <si>
+    <t>Nrp2</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pgf</t>
-  </si>
-  <si>
-    <t>Nrp2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H2">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I2">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J2">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N2">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q2">
-        <v>137.4651773804437</v>
+        <v>1517.381244525978</v>
       </c>
       <c r="R2">
-        <v>1237.186596423993</v>
+        <v>13656.4312007338</v>
       </c>
       <c r="S2">
-        <v>0.2855951218622246</v>
+        <v>0.2901701034372889</v>
       </c>
       <c r="T2">
-        <v>0.2855951218622245</v>
+        <v>0.2901701034372889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H3">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I3">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J3">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q3">
-        <v>56.06801617698522</v>
+        <v>597.7995895469751</v>
       </c>
       <c r="R3">
-        <v>504.612145592867</v>
+        <v>5380.196305922776</v>
       </c>
       <c r="S3">
-        <v>0.1164858782258939</v>
+        <v>0.1143177229581507</v>
       </c>
       <c r="T3">
-        <v>0.1164858782258939</v>
+        <v>0.1143177229581507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H4">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I4">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J4">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N4">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q4">
-        <v>58.08389147782878</v>
+        <v>695.0006629523563</v>
       </c>
       <c r="R4">
-        <v>522.7550233004589</v>
+        <v>6255.005966571207</v>
       </c>
       <c r="S4">
-        <v>0.1206740236396965</v>
+        <v>0.132905566735715</v>
       </c>
       <c r="T4">
-        <v>0.1206740236396965</v>
+        <v>0.132905566735715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H5">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I5">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J5">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N5">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q5">
-        <v>12.43518175980144</v>
+        <v>182.9235727045342</v>
       </c>
       <c r="R5">
-        <v>111.916635838213</v>
+        <v>1646.312154340808</v>
       </c>
       <c r="S5">
-        <v>0.0258351046988475</v>
+        <v>0.03498063008507446</v>
       </c>
       <c r="T5">
-        <v>0.0258351046988475</v>
+        <v>0.03498063008507447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H6">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I6">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J6">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N6">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q6">
-        <v>32.882610024598</v>
+        <v>331.1897387010861</v>
       </c>
       <c r="R6">
-        <v>295.943490221382</v>
+        <v>2980.707648309775</v>
       </c>
       <c r="S6">
-        <v>0.06831630523512559</v>
+        <v>0.06333369486604169</v>
       </c>
       <c r="T6">
-        <v>0.06831630523512558</v>
+        <v>0.06333369486604171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H7">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I7">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J7">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N7">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q7">
-        <v>42.74351799680733</v>
+        <v>1715.081401718013</v>
       </c>
       <c r="R7">
-        <v>384.6916619712659</v>
+        <v>15435.73261546212</v>
       </c>
       <c r="S7">
-        <v>0.08880314610393134</v>
+        <v>0.3279764723171826</v>
       </c>
       <c r="T7">
-        <v>0.08880314610393132</v>
+        <v>0.3279764723171826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.970546</v>
       </c>
       <c r="I8">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J8">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N8">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q8">
-        <v>11.07029451819933</v>
+        <v>11.46095394922778</v>
       </c>
       <c r="R8">
-        <v>99.63265066379401</v>
+        <v>103.14858554305</v>
       </c>
       <c r="S8">
-        <v>0.02299944009256878</v>
+        <v>0.002191687952473894</v>
       </c>
       <c r="T8">
-        <v>0.02299944009256878</v>
+        <v>0.002191687952473894</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.970546</v>
       </c>
       <c r="I9">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J9">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q9">
         <v>4.515248617565112</v>
@@ -1013,10 +1013,10 @@
         <v>40.637237558086</v>
       </c>
       <c r="S9">
-        <v>0.009380797404442901</v>
+        <v>0.0008634548259578898</v>
       </c>
       <c r="T9">
-        <v>0.009380797404442899</v>
+        <v>0.0008634548259578899</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,10 +1045,10 @@
         <v>0.970546</v>
       </c>
       <c r="I10">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J10">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N10">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q10">
-        <v>4.677590337246889</v>
+        <v>5.249419433326444</v>
       </c>
       <c r="R10">
-        <v>42.098313035222</v>
+        <v>47.244774899938</v>
       </c>
       <c r="S10">
-        <v>0.009718075572625995</v>
+        <v>0.001003850934265302</v>
       </c>
       <c r="T10">
-        <v>0.009718075572625995</v>
+        <v>0.001003850934265302</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>0.970546</v>
       </c>
       <c r="I11">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J11">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N11">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q11">
-        <v>1.001425430728222</v>
+        <v>1.381642649504222</v>
       </c>
       <c r="R11">
-        <v>9.012828876554</v>
+        <v>12.434783845538</v>
       </c>
       <c r="S11">
-        <v>0.002080543039152584</v>
+        <v>0.0002642126966880054</v>
       </c>
       <c r="T11">
-        <v>0.002080543039152584</v>
+        <v>0.0002642126966880054</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.970546</v>
       </c>
       <c r="I12">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J12">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N12">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q12">
-        <v>2.648090115884</v>
+        <v>2.501513945426222</v>
       </c>
       <c r="R12">
-        <v>23.832811042956</v>
+        <v>22.513625508836</v>
       </c>
       <c r="S12">
-        <v>0.005501623274780242</v>
+        <v>0.0004783666352228467</v>
       </c>
       <c r="T12">
-        <v>0.005501623274780241</v>
+        <v>0.0004783666352228469</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.970546</v>
       </c>
       <c r="I13">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J13">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N13">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q13">
-        <v>3.442205087758667</v>
+        <v>12.95420583006333</v>
       </c>
       <c r="R13">
-        <v>30.979845789828</v>
+        <v>116.58785247057</v>
       </c>
       <c r="S13">
-        <v>0.007151461921097859</v>
+        <v>0.002477243777210175</v>
       </c>
       <c r="T13">
-        <v>0.007151461921097858</v>
+        <v>0.002477243777210175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H14">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I14">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J14">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N14">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q14">
-        <v>38.77737520060566</v>
+        <v>1.950867756069444</v>
       </c>
       <c r="R14">
-        <v>348.996376805451</v>
+        <v>17.557809804625</v>
       </c>
       <c r="S14">
-        <v>0.08056316084519671</v>
+        <v>0.0003730660970097756</v>
       </c>
       <c r="T14">
-        <v>0.08056316084519669</v>
+        <v>0.0003730660970097757</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H15">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I15">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J15">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q15">
-        <v>15.81615461806322</v>
+        <v>0.7685793850727778</v>
       </c>
       <c r="R15">
-        <v>142.345391562569</v>
+        <v>6.917214465654999</v>
       </c>
       <c r="S15">
-        <v>0.03285935166719655</v>
+        <v>0.0001469760882249509</v>
       </c>
       <c r="T15">
-        <v>0.03285935166719654</v>
+        <v>0.0001469760882249509</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H16">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I16">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J16">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N16">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q16">
-        <v>16.38481029063477</v>
+        <v>0.893548927596111</v>
       </c>
       <c r="R16">
-        <v>147.463292615713</v>
+        <v>8.041940348364999</v>
       </c>
       <c r="S16">
-        <v>0.03404078022387204</v>
+        <v>0.0001708741199235267</v>
       </c>
       <c r="T16">
-        <v>0.03404078022387204</v>
+        <v>0.0001708741199235268</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H17">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I17">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J17">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N17">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q17">
-        <v>3.507824439443444</v>
+        <v>0.2351813040405556</v>
       </c>
       <c r="R17">
-        <v>31.570419954991</v>
+        <v>2.116631736365</v>
       </c>
       <c r="S17">
-        <v>0.007287791478139557</v>
+        <v>4.497392040804034E-05</v>
       </c>
       <c r="T17">
-        <v>0.007287791478139556</v>
+        <v>4.497392040804034E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H18">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I18">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J18">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N18">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q18">
-        <v>9.275813197185999</v>
+        <v>0.4258042497255555</v>
       </c>
       <c r="R18">
-        <v>83.482318774674</v>
+        <v>3.83223824753</v>
       </c>
       <c r="S18">
-        <v>0.01927125873551189</v>
+        <v>8.142690812387089E-05</v>
       </c>
       <c r="T18">
-        <v>0.01927125873551188</v>
+        <v>8.142690812387092E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H19">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I19">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J19">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N19">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q19">
-        <v>12.05746405265133</v>
+        <v>2.205047029358333</v>
       </c>
       <c r="R19">
-        <v>108.517176473862</v>
+        <v>19.845423264225</v>
       </c>
       <c r="S19">
-        <v>0.02505036534406161</v>
+        <v>0.0004216730152038203</v>
       </c>
       <c r="T19">
-        <v>0.02505036534406161</v>
+        <v>0.0004216730152038203</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H20">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I20">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J20">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N20">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O20">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P20">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q20">
-        <v>4.868109505686334</v>
+        <v>40.44727901341667</v>
       </c>
       <c r="R20">
-        <v>43.812985551177</v>
+        <v>364.02551112075</v>
       </c>
       <c r="S20">
-        <v>0.01011389468961565</v>
+        <v>0.007734767499875389</v>
       </c>
       <c r="T20">
-        <v>0.01011389468961564</v>
+        <v>0.007734767499875389</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H21">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I21">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J21">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>41.870491</v>
       </c>
       <c r="O21">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P21">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q21">
-        <v>1.985559162818112</v>
+        <v>15.93493189647667</v>
       </c>
       <c r="R21">
-        <v>17.870032465363</v>
+        <v>143.41438706829</v>
       </c>
       <c r="S21">
-        <v>0.004125161163545468</v>
+        <v>0.003047250553114129</v>
       </c>
       <c r="T21">
-        <v>0.004125161163545467</v>
+        <v>0.003047250553114129</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H22">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I22">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J22">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N22">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O22">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P22">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q22">
-        <v>2.056948164027889</v>
+        <v>18.52592143889667</v>
       </c>
       <c r="R22">
-        <v>18.512533476251</v>
+        <v>166.73329295007</v>
       </c>
       <c r="S22">
-        <v>0.004273477638224017</v>
+        <v>0.003542727682702489</v>
       </c>
       <c r="T22">
-        <v>0.004273477638224016</v>
+        <v>0.003542727682702489</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H23">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I23">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J23">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N23">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O23">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P23">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q23">
-        <v>0.4403720831952223</v>
+        <v>4.876006481563334</v>
       </c>
       <c r="R23">
-        <v>3.963348748757</v>
+        <v>43.88405833407001</v>
       </c>
       <c r="S23">
-        <v>0.0009149089330222874</v>
+        <v>0.0009324428585237477</v>
       </c>
       <c r="T23">
-        <v>0.0009149089330222871</v>
+        <v>0.0009324428585237477</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H24">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I24">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J24">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N24">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O24">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P24">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q24">
-        <v>1.164485068022</v>
+        <v>8.828185939393334</v>
       </c>
       <c r="R24">
-        <v>10.480365612198</v>
+        <v>79.45367345454001</v>
       </c>
       <c r="S24">
-        <v>0.002419312739749877</v>
+        <v>0.001688221491097736</v>
       </c>
       <c r="T24">
-        <v>0.002419312739749876</v>
+        <v>0.001688221491097736</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H25">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I25">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J25">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N25">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O25">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P25">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q25">
-        <v>1.513693360252667</v>
+        <v>45.71716978595001</v>
       </c>
       <c r="R25">
-        <v>13.623240242274</v>
+        <v>411.45452807355</v>
       </c>
       <c r="S25">
-        <v>0.003144821458942821</v>
+        <v>0.008742533185714557</v>
       </c>
       <c r="T25">
-        <v>0.00314482145894282</v>
+        <v>0.008742533185714557</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H26">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I26">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J26">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N26">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O26">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P26">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q26">
-        <v>2.609055209952333</v>
+        <v>3.322420900733333</v>
       </c>
       <c r="R26">
-        <v>23.481496889571</v>
+        <v>29.9017881066</v>
       </c>
       <c r="S26">
-        <v>0.005420525072829203</v>
+        <v>0.0006353493691225713</v>
       </c>
       <c r="T26">
-        <v>0.0054205250728292</v>
+        <v>0.0006353493691225715</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H27">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I27">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J27">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>41.870491</v>
       </c>
       <c r="O27">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P27">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q27">
-        <v>1.064157137872111</v>
+        <v>1.308927375981333</v>
       </c>
       <c r="R27">
-        <v>9.577414240849</v>
+        <v>11.780346383832</v>
       </c>
       <c r="S27">
-        <v>0.002210873279056186</v>
+        <v>0.0002503072932070239</v>
       </c>
       <c r="T27">
-        <v>0.002210873279056185</v>
+        <v>0.0002503072932070239</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H28">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I28">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J28">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N28">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O28">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P28">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q28">
-        <v>1.102417954585889</v>
+        <v>1.521756471517333</v>
       </c>
       <c r="R28">
-        <v>9.921761591272999</v>
+        <v>13.695808243656</v>
       </c>
       <c r="S28">
-        <v>0.002290363247498725</v>
+        <v>0.0002910067818088078</v>
       </c>
       <c r="T28">
-        <v>0.002290363247498724</v>
+        <v>0.0002910067818088079</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H29">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I29">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J29">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N29">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O29">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P29">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q29">
-        <v>0.2360166871012222</v>
+        <v>0.4005249856506667</v>
       </c>
       <c r="R29">
-        <v>2.124150183911</v>
+        <v>3.604724870856</v>
       </c>
       <c r="S29">
-        <v>0.0004903439241753847</v>
+        <v>7.659273299623477E-05</v>
       </c>
       <c r="T29">
-        <v>0.0004903439241753846</v>
+        <v>7.659273299623478E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H30">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I30">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J30">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N30">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O30">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P30">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q30">
-        <v>0.624103839506</v>
+        <v>0.7251649603146666</v>
       </c>
       <c r="R30">
-        <v>5.616934555554</v>
+        <v>6.526484642832</v>
       </c>
       <c r="S30">
-        <v>0.001296626647526194</v>
+        <v>0.0001386739109256216</v>
       </c>
       <c r="T30">
-        <v>0.001296626647526194</v>
+        <v>0.0001386739109256217</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H31">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I31">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J31">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N31">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O31">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P31">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q31">
-        <v>0.8112614441446666</v>
+        <v>3.75530033476</v>
       </c>
       <c r="R31">
-        <v>7.301352997302</v>
+        <v>33.79770301284</v>
       </c>
       <c r="S31">
-        <v>0.001685461841448013</v>
+        <v>0.0007181292707461956</v>
       </c>
       <c r="T31">
-        <v>0.001685461841448012</v>
+        <v>0.0007181292707461957</v>
       </c>
     </row>
   </sheetData>
